--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>349069.2156511637</v>
+        <v>352192.1702322987</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162199</v>
+        <v>12215006.4334169</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.510437308</v>
+        <v>10110838.60250329</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6562415.206287665</v>
+        <v>6391954.52862615</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>181.094304704511</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>49.44400687203188</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +791,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.748445174862</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -826,16 +828,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>106.9706214097032</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>256.0477292150194</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>172.5803280375311</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -993,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>79.20507481715865</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>197.3171546936819</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>356.8121730677876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588048</v>
       </c>
       <c r="H9" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>27.77250173713422</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>100.3551518802502</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1427,13 +1429,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>282.8053997497795</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.9779345588243</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1588,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.5952110672383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>194.9067600597618</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1658,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>265.1045831588601</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>373.2129903857668</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>222.3334643021492</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>86.34896487500716</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -2014,10 +2016,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>57.51403184186094</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>5.623203785426046</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>71.51315619893073</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>258.594139456674</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2305,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.5952110672384</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2321,22 +2323,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>296.6970850167862</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>386.8650699901663</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.5952110672385</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2558,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>193.5373154318084</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>11.01821599153682</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>107.1280859169437</v>
+        <v>54.68688746169101</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>126.8274151901476</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>329.6695980564849</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588048</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
         <v>70.03974083464111</v>
@@ -2934,7 +2936,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424963</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>77.72590661309961</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.8710203300643</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3034,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>40.3950232139772</v>
+        <v>36.61269645884417</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>105.6900565596963</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>150.6424829026926</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3427,16 +3429,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>106.9706214097032</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>101.8855050095077</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>11.5407066359931</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>127.5803104754384</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>133.8685554756014</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -3679,7 +3681,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>405.1565693775484</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,7 +3903,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3913,10 +3915,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>212.58658569201</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>295.7705310992044</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.20632670693379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>107.1631593534817</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>214.8428175635996</v>
       </c>
       <c r="U44" t="n">
-        <v>123.6621491913814</v>
+        <v>254.3959226581688</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>387.3836695375397</v>
       </c>
     </row>
     <row r="45">
@@ -4068,10 +4070,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.2917708025282</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>63.97032616218182</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>95.23709837091006</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>155.2153879160108</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3359579665663</v>
       </c>
       <c r="V45" t="n">
-        <v>91.53337611211489</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.7165542762734</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>99.33835950151285</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>60.73028694681985</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>175.3460544540683</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>234.9021070775794</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>206.4729078973958</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1253.61386627848</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="C2" t="n">
-        <v>843.4892755917504</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="D2" t="n">
-        <v>439.0253456848109</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E2" t="n">
-        <v>439.0253456848109</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F2" t="n">
-        <v>439.0253456848109</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
         <v>439.0253456848109</v>
@@ -4328,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1767.09327468481</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2038.310840195222</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2038.310840195222</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>2038.310840195222</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>2038.310840195222</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W2" t="n">
-        <v>1654.55053933039</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X2" t="n">
-        <v>1654.55053933039</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1253.61386627848</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M3" t="n">
-        <v>508.1659581184966</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.31505061373</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>470.2216781754465</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7270334983565</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>149.816218366676</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4525,13 +4527,13 @@
         <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>1292.094317759326</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.75045561901</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.0147570077744</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020.035937023213</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C5" t="n">
-        <v>1020.035937023213</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D5" t="n">
-        <v>1020.035937023213</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E5" t="n">
-        <v>761.4018671090519</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4568,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>812.7934917636817</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4595,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.193789739612</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="X5" t="n">
-        <v>1831.193789739612</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="Y5" t="n">
-        <v>1430.257116687702</v>
+        <v>1691.724233752687</v>
       </c>
     </row>
     <row r="6">
@@ -4626,43 +4628,43 @@
         <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>751.4208778585605</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433489</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1491.158856172514</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1304.767088052424</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1065.218349029126</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>782.4202015752502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>508.5344565147721</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>229.4647920236465</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236465</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1592.556869842094</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="C8" t="n">
-        <v>1182.432279155364</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="D8" t="n">
-        <v>1182.432279155364</v>
+        <v>1274.395973214227</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.432279155364</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F8" t="n">
-        <v>761.4018671090519</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N8" t="n">
-        <v>692.8507596625949</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O8" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4832,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.556869842094</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4874,37 @@
         <v>240.2510026593073</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585605</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M9" t="n">
-        <v>1268.263812524886</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1543.110950192741</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1303.562211169443</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1020.764063715567</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>746.8783186550887</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>467.8086541639631</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>229.4647920236465</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>858.5063531919045</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="C11" t="n">
-        <v>858.5063531919045</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="D11" t="n">
-        <v>454.042423284965</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="E11" t="n">
-        <v>454.042423284965</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F11" t="n">
-        <v>454.042423284965</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G11" t="n">
         <v>352.673583001884</v>
@@ -5039,52 +5041,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>537.7254774811266</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1054.568412147452</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N11" t="n">
-        <v>1571.411346813777</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V11" t="n">
-        <v>1259.149751022952</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="W11" t="n">
-        <v>1259.149751022952</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="X11" t="n">
-        <v>858.5063531919045</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="Y11" t="n">
-        <v>858.5063531919045</v>
+        <v>1188.0442105313</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959273</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962253</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O12" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5224,25 +5226,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1435.832735221336</v>
       </c>
       <c r="T13" t="n">
-        <v>1331.615243227154</v>
+        <v>1196.283996198038</v>
       </c>
       <c r="U13" t="n">
-        <v>1048.817095773278</v>
+        <v>913.4858487441627</v>
       </c>
       <c r="V13" t="n">
-        <v>774.9313507128002</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="W13" t="n">
-        <v>495.8616862216745</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="X13" t="n">
-        <v>257.5178240813579</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>954.0130281207041</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="C14" t="n">
-        <v>954.0130281207041</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="D14" t="n">
-        <v>549.5490982137646</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="E14" t="n">
-        <v>549.5490982137646</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F14" t="n">
-        <v>549.5490982137646</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G14" t="n">
         <v>352.673583001884</v>
@@ -5276,28 +5278,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5306,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.416726816583</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W14" t="n">
-        <v>1354.656425951752</v>
+        <v>1598.265390195789</v>
       </c>
       <c r="X14" t="n">
-        <v>954.0130281207041</v>
+        <v>1598.265390195789</v>
       </c>
       <c r="Y14" t="n">
-        <v>954.0130281207041</v>
+        <v>1598.265390195789</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5360,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959273</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O15" t="n">
-        <v>1571.411346813777</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P15" t="n">
         <v>2088.254281480102</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1575.990387702721</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C17" t="n">
-        <v>1165.865797015991</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D17" t="n">
-        <v>761.4018671090519</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E17" t="n">
-        <v>761.4018671090519</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F17" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G17" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H17" t="n">
         <v>41.76508562960205</v>
@@ -5513,13 +5515,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M17" t="n">
         <v>1530.854701124212</v>
@@ -5528,7 +5530,7 @@
         <v>1530.854701124212</v>
       </c>
       <c r="O17" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P17" t="n">
         <v>2047.697635790537</v>
@@ -5540,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U17" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V17" t="n">
-        <v>1952.973206274203</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W17" t="n">
-        <v>1952.973206274203</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X17" t="n">
-        <v>1952.973206274203</v>
+        <v>873.0166773404039</v>
       </c>
       <c r="Y17" t="n">
-        <v>1952.973206274203</v>
+        <v>873.0166773404039</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5600,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="M18" t="n">
         <v>1207.227134123859</v>
       </c>
-      <c r="M18" t="n">
-        <v>1571.411346813777</v>
-      </c>
       <c r="N18" t="n">
-        <v>2088.254281480102</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O18" t="n">
-        <v>2088.254281480102</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>425.4020083091367</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C19" t="n">
-        <v>425.4020083091367</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D19" t="n">
-        <v>425.4020083091367</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E19" t="n">
-        <v>264.4911931774562</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F19" t="n">
-        <v>99.86006728804745</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H19" t="n">
         <v>41.76508562960205</v>
@@ -5695,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T19" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U19" t="n">
-        <v>1203.093116471976</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V19" t="n">
-        <v>929.2073714114977</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="W19" t="n">
-        <v>650.137706920372</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="X19" t="n">
-        <v>650.137706920372</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="Y19" t="n">
-        <v>425.4020083091367</v>
+        <v>1101.974066676486</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>936.1539357295501</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C20" t="n">
-        <v>936.1539357295501</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D20" t="n">
-        <v>936.1539357295501</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E20" t="n">
-        <v>521.8137202464468</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F20" t="n">
-        <v>521.8137202464468</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G20" t="n">
-        <v>449.5782089343955</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>138.6697115621136</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>52.31794887918674</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>52.31794887918674</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L20" t="n">
-        <v>699.7525662591225</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M20" t="n">
-        <v>1347.187183639058</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N20" t="n">
-        <v>1994.621801018994</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O20" t="n">
-        <v>2575.340798269772</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P20" t="n">
-        <v>2575.340798269772</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2575.340798269772</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2480.616368753438</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2480.616368753438</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>2480.616368753438</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V20" t="n">
-        <v>2130.778814089918</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W20" t="n">
-        <v>1747.018513225087</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X20" t="n">
-        <v>1346.37511539404</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="Y20" t="n">
-        <v>1346.37511539404</v>
+        <v>457.5696801399946</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>245.13080644182</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>700.9370627071187</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L21" t="n">
-        <v>1187.256787557173</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M21" t="n">
-        <v>1187.256787557173</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N21" t="n">
-        <v>1187.256787557173</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O21" t="n">
-        <v>1187.256787557173</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P21" t="n">
-        <v>1748.962680045703</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.31794887918674</v>
+        <v>380.1088491423421</v>
       </c>
       <c r="C22" t="n">
-        <v>52.31794887918674</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D22" t="n">
-        <v>52.31794887918674</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E22" t="n">
-        <v>52.31794887918674</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F22" t="n">
-        <v>52.31794887918674</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G22" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1342.168106476739</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U22" t="n">
-        <v>1059.369959022863</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V22" t="n">
-        <v>785.484213962385</v>
+        <v>1309.957780779064</v>
       </c>
       <c r="W22" t="n">
-        <v>506.4145494712593</v>
+        <v>1030.888116287938</v>
       </c>
       <c r="X22" t="n">
-        <v>268.0706873309427</v>
+        <v>792.5442541476218</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.31794887918674</v>
+        <v>567.8085555363865</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2418.141476767834</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C23" t="n">
-        <v>2008.016886081105</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D23" t="n">
-        <v>1603.552956174165</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E23" t="n">
-        <v>1189.212740691062</v>
+        <v>853.5682956457795</v>
       </c>
       <c r="F23" t="n">
-        <v>889.5187154215807</v>
+        <v>432.537883599467</v>
       </c>
       <c r="G23" t="n">
-        <v>480.790431314413</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>169.881933942131</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>440.468994386046</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L23" t="n">
-        <v>1153.060394198284</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M23" t="n">
-        <v>1929.378985190038</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N23" t="n">
-        <v>2682.560001828656</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O23" t="n">
-        <v>3326.190858245761</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>3855.347556164912</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4041.227487754305</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>3819.021003701164</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>3561.960511960674</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>3212.122957297155</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>2828.362656432324</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>2828.362656432324</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>2828.362656432324</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>276.3430288218373</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>276.3430288218373</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>276.3430288218373</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M24" t="n">
-        <v>1119.320109516404</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N24" t="n">
-        <v>1780.174902425721</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O24" t="n">
-        <v>1780.174902425721</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P24" t="n">
-        <v>1780.174902425721</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>97.61272066441461</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>252.1650483866526</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>512.0621486667131</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>801.3262051072064</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1082.164987501457</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1341.725597827931</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>1547.401038077543</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1373.380328856756</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.58218140288</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>816.6964363424024</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>537.6267718512768</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>299.2829097109602</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1481.356235076093</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="C26" t="n">
-        <v>1481.356235076093</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="D26" t="n">
-        <v>1285.863997266186</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="E26" t="n">
-        <v>871.5237817830823</v>
+        <v>547.9746435222592</v>
       </c>
       <c r="F26" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I26" t="n">
         <v>41.76508562960205</v>
@@ -6227,49 +6229,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L26" t="n">
-        <v>812.7934917636817</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M26" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N26" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O26" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P26" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U26" t="n">
-        <v>1831.193789739612</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V26" t="n">
-        <v>1481.356235076093</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W26" t="n">
-        <v>1481.356235076093</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X26" t="n">
-        <v>1481.356235076093</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="Y26" t="n">
-        <v>1481.356235076093</v>
+        <v>962.3148590053625</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7254774811262</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O27" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q27" t="n">
         <v>2088.254281480102</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>309.4699181015847</v>
+        <v>920.3847151048558</v>
       </c>
       <c r="C28" t="n">
-        <v>309.4699181015847</v>
+        <v>749.2913426665723</v>
       </c>
       <c r="D28" t="n">
-        <v>149.9752734244947</v>
+        <v>589.7966979894823</v>
       </c>
       <c r="E28" t="n">
-        <v>149.9752734244947</v>
+        <v>428.8858828578017</v>
       </c>
       <c r="F28" t="n">
-        <v>149.9752734244947</v>
+        <v>264.254756968393</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9752734244947</v>
+        <v>97.00436589393641</v>
       </c>
       <c r="H28" t="n">
         <v>41.76508562960205</v>
@@ -6409,25 +6411,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>862.4253276531883</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V28" t="n">
-        <v>588.5395825927103</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W28" t="n">
-        <v>309.4699181015847</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X28" t="n">
-        <v>309.4699181015847</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y28" t="n">
-        <v>309.4699181015847</v>
+        <v>1108.0844214989</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1303.850582784223</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="C29" t="n">
-        <v>1303.850582784223</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="D29" t="n">
-        <v>1175.742082592155</v>
+        <v>1204.523375779532</v>
       </c>
       <c r="E29" t="n">
-        <v>761.4018671090519</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F29" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G29" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H29" t="n">
         <v>41.76508562960205</v>
@@ -6461,28 +6463,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M29" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N29" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6491,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.493980615271</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X29" t="n">
-        <v>1303.850582784223</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y29" t="n">
-        <v>1303.850582784223</v>
+        <v>1608.987305686471</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
         <v>133.2608899736458</v>
@@ -6540,28 +6542,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M30" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N30" t="n">
-        <v>1531.257211227551</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O30" t="n">
-        <v>2048.100145893876</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6585,7 +6587,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>843.6595175967814</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
         <v>41.76508562960205</v>
@@ -6646,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T31" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U31" t="n">
-        <v>1331.615243227154</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V31" t="n">
-        <v>1331.615243227154</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W31" t="n">
-        <v>1331.615243227154</v>
+        <v>583.3556631620627</v>
       </c>
       <c r="X31" t="n">
-        <v>1331.615243227154</v>
+        <v>345.0118010217461</v>
       </c>
       <c r="Y31" t="n">
-        <v>1202.452596429109</v>
+        <v>120.2761024105108</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>492.6927300678241</v>
+        <v>893.3361278988716</v>
       </c>
       <c r="C32" t="n">
-        <v>82.56813938109417</v>
+        <v>483.2115372121417</v>
       </c>
       <c r="D32" t="n">
-        <v>82.56813938109417</v>
+        <v>78.74760730520222</v>
       </c>
       <c r="E32" t="n">
-        <v>82.56813938109417</v>
+        <v>78.74760730520222</v>
       </c>
       <c r="F32" t="n">
         <v>41.76508562960205</v>
@@ -6698,28 +6700,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N32" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O32" t="n">
-        <v>1726.536628995245</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P32" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
@@ -6740,10 +6742,10 @@
         <v>1704.493980615271</v>
       </c>
       <c r="X32" t="n">
-        <v>1303.850582784223</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y32" t="n">
-        <v>902.9139097323135</v>
+        <v>1303.557307563361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G33" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M33" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O33" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P33" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6813,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.76508562960205</v>
+        <v>641.31505061373</v>
       </c>
       <c r="C34" t="n">
-        <v>41.76508562960205</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76508562960205</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E34" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F34" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G34" t="n">
         <v>41.76508562960205</v>
@@ -6880,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U34" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V34" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W34" t="n">
-        <v>224.1971997769844</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X34" t="n">
-        <v>41.76508562960205</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.76508562960205</v>
+        <v>829.0147570077744</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1695.988587952916</v>
+        <v>689.0092565638307</v>
       </c>
       <c r="C35" t="n">
-        <v>1285.863997266186</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="D35" t="n">
-        <v>1285.863997266186</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="E35" t="n">
-        <v>871.5237817830823</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I35" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O35" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P35" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>689.0092565638307</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7019,10 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L36" t="n">
-        <v>537.7254774811262</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M36" t="n">
         <v>1054.568412147451</v>
@@ -7075,13 +7077,13 @@
         <v>470.2216781754465</v>
       </c>
       <c r="D37" t="n">
-        <v>310.7270334983565</v>
+        <v>470.2216781754465</v>
       </c>
       <c r="E37" t="n">
-        <v>149.816218366676</v>
+        <v>309.310863043766</v>
       </c>
       <c r="F37" t="n">
-        <v>41.76508562960205</v>
+        <v>144.6797371543573</v>
       </c>
       <c r="G37" t="n">
         <v>41.76508562960205</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.033101815613</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C38" t="n">
-        <v>1267.908511128883</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D38" t="n">
-        <v>1267.908511128883</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E38" t="n">
-        <v>853.5682956457795</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F38" t="n">
-        <v>432.537883599467</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G38" t="n">
         <v>41.76508562960205</v>
@@ -7181,43 +7183,43 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N38" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O38" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>2076.597002049806</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1854.390517996665</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1597.330026256175</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1247.492471592656</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>863.7321707278244</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>863.7321707278244</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.254281480102</v>
+        <v>462.7954976759145</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M39" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N39" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O39" t="n">
-        <v>1571.411346813777</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P39" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q39" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>646.0623502325593</v>
+        <v>819.3856360263594</v>
       </c>
       <c r="C40" t="n">
-        <v>474.9689777942758</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="D40" t="n">
-        <v>474.9689777942758</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E40" t="n">
-        <v>474.9689777942758</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F40" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
         <v>41.76508562960205</v>
@@ -7363,19 +7365,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1048.817095773278</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V40" t="n">
-        <v>774.9313507128002</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W40" t="n">
-        <v>774.9313507128002</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="X40" t="n">
-        <v>774.9313507128002</v>
+        <v>819.3856360263594</v>
       </c>
       <c r="Y40" t="n">
-        <v>774.9313507128002</v>
+        <v>819.3856360263594</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1695.988587952916</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C41" t="n">
-        <v>1285.863997266186</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.863997266186</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="E41" t="n">
-        <v>871.5237817830823</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I41" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>216.5644706858345</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L41" t="n">
-        <v>733.4074053521598</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M41" t="n">
-        <v>733.4074053521598</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N41" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O41" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P41" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
         <v>41.76508562960205</v>
@@ -7494,22 +7496,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L42" t="n">
-        <v>537.7254774811262</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M42" t="n">
-        <v>1054.568412147451</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N42" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O42" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1131.098935930739</v>
+        <v>705.6507901634313</v>
       </c>
       <c r="C43" t="n">
-        <v>960.0055634924552</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="D43" t="n">
-        <v>800.5109188153651</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E43" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F43" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G43" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
         <v>41.76508562960205</v>
@@ -7591,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W43" t="n">
-        <v>1485.891263925851</v>
+        <v>1356.430057309028</v>
       </c>
       <c r="X43" t="n">
-        <v>1485.891263925851</v>
+        <v>1118.086195168711</v>
       </c>
       <c r="Y43" t="n">
-        <v>1318.798642324783</v>
+        <v>893.3504965574757</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>819.3996562188394</v>
+        <v>381.1356490701457</v>
       </c>
       <c r="C44" t="n">
-        <v>425.3059392994284</v>
+        <v>381.1356490701457</v>
       </c>
       <c r="D44" t="n">
-        <v>425.3059392994284</v>
+        <v>381.1356490701457</v>
       </c>
       <c r="E44" t="n">
-        <v>425.3059392994284</v>
+        <v>381.1356490701457</v>
       </c>
       <c r="F44" t="n">
-        <v>31.21222238001735</v>
+        <v>381.1356490701457</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>381.1356490701457</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>82.37753684872709</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>31.21222238001735</v>
+        <v>394.6423087428388</v>
       </c>
       <c r="K44" t="n">
-        <v>417.4634743327321</v>
+        <v>911.4852434091641</v>
       </c>
       <c r="L44" t="n">
-        <v>417.4634743327321</v>
+        <v>1000.454292520302</v>
       </c>
       <c r="M44" t="n">
-        <v>417.4634743327321</v>
+        <v>1112.275624321817</v>
       </c>
       <c r="N44" t="n">
-        <v>803.7147262854468</v>
+        <v>1227.77493457091</v>
       </c>
       <c r="O44" t="n">
-        <v>1189.965978238161</v>
+        <v>1331.43687725907</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>1527.923457787344</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>1974.654489419598</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.008665971535</v>
       </c>
       <c r="T44" t="n">
-        <v>1338.404634947726</v>
+        <v>1762.995718937596</v>
       </c>
       <c r="U44" t="n">
-        <v>1213.49337313825</v>
+        <v>1506.030140495001</v>
       </c>
       <c r="V44" t="n">
-        <v>1213.49337313825</v>
+        <v>1156.192585831482</v>
       </c>
       <c r="W44" t="n">
-        <v>1213.49337313825</v>
+        <v>772.4322849666505</v>
       </c>
       <c r="X44" t="n">
-        <v>1213.49337313825</v>
+        <v>772.4322849666505</v>
       </c>
       <c r="Y44" t="n">
-        <v>1213.49337313825</v>
+        <v>381.1356490701457</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>511.5571472368467</v>
+        <v>693.0818256023001</v>
       </c>
       <c r="C45" t="n">
-        <v>377.5620759857924</v>
+        <v>559.0867543512458</v>
       </c>
       <c r="D45" t="n">
-        <v>260.6649182051848</v>
+        <v>442.1895965706382</v>
       </c>
       <c r="E45" t="n">
-        <v>140.1721021975128</v>
+        <v>321.6967805629662</v>
       </c>
       <c r="F45" t="n">
-        <v>31.21222238001735</v>
+        <v>212.7369007454708</v>
       </c>
       <c r="G45" t="n">
-        <v>31.21222238001735</v>
+        <v>106.381576702513</v>
       </c>
       <c r="H45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>293.3580743661004</v>
       </c>
       <c r="K45" t="n">
-        <v>417.4634743327321</v>
+        <v>810.2010090324256</v>
       </c>
       <c r="L45" t="n">
-        <v>803.7147262854468</v>
+        <v>889.7346920520993</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.965978238161</v>
+        <v>990.3862803843508</v>
       </c>
       <c r="N45" t="n">
-        <v>1560.611119000868</v>
+        <v>1099.537317952486</v>
       </c>
       <c r="O45" t="n">
-        <v>1560.611119000868</v>
+        <v>1190.390175885779</v>
       </c>
       <c r="P45" t="n">
-        <v>1560.611119000868</v>
+        <v>1548.89888789032</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>1978.161064736421</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2046.348852837607</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1950.149763574061</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1793.366543456878</v>
       </c>
       <c r="U45" t="n">
-        <v>1293.279245302185</v>
+        <v>1596.057495005801</v>
       </c>
       <c r="V45" t="n">
-        <v>1200.821289633382</v>
+        <v>1382.345967998835</v>
       </c>
       <c r="W45" t="n">
-        <v>987.5881213697105</v>
+        <v>1169.112799735164</v>
       </c>
       <c r="X45" t="n">
-        <v>811.2621395086032</v>
+        <v>992.7868178740567</v>
       </c>
       <c r="Y45" t="n">
-        <v>651.8601798724333</v>
+        <v>833.3848582378868</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.546072681154</v>
+        <v>474.1110504738215</v>
       </c>
       <c r="C46" t="n">
-        <v>949.4527002428704</v>
+        <v>303.017678035538</v>
       </c>
       <c r="D46" t="n">
-        <v>789.9580555657803</v>
+        <v>303.017678035538</v>
       </c>
       <c r="E46" t="n">
-        <v>629.0472404340999</v>
+        <v>142.1068629038575</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4161145446911</v>
+        <v>142.1068629038575</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1657234702345</v>
+        <v>142.1068629038575</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5582682756912</v>
+        <v>142.1068629038575</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>92.72440034530302</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>307.8765815673569</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>645.320630527855</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>1016.347071467356</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1377.004111605144</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1710.289801917153</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1979.049784495525</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>2026.910557291395</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556178</v>
+        <v>1849.793330570114</v>
       </c>
       <c r="T46" t="n">
-        <v>1288.946632556178</v>
+        <v>1612.518474936196</v>
       </c>
       <c r="U46" t="n">
-        <v>1288.946632556178</v>
+        <v>1612.518474936196</v>
       </c>
       <c r="V46" t="n">
-        <v>1288.946632556178</v>
+        <v>1403.959982110543</v>
       </c>
       <c r="W46" t="n">
-        <v>1288.946632556178</v>
+        <v>1124.890317619418</v>
       </c>
       <c r="X46" t="n">
-        <v>1288.946632556178</v>
+        <v>886.5464554791012</v>
       </c>
       <c r="Y46" t="n">
-        <v>1288.946632556178</v>
+        <v>661.8107568678658</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>269.4773261669552</v>
+        <v>296.1630732760185</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8057,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>332.1773130131622</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8073,10 +8075,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>171.9933802602897</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8216,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O5" t="n">
-        <v>535.0653799235644</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
@@ -8301,19 +8303,19 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>498.2302468367834</v>
+        <v>524.3053858067747</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>228.5110173896169</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8529,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>198.9610844237788</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
@@ -8541,7 +8543,7 @@
         <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>498.2302468367832</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
@@ -8553,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>590.1064824525349</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P12" t="n">
-        <v>201.8514806265826</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
-        <v>554.1634861730672</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>94.81936791818303</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>611.1999600432426</v>
@@ -9170,16 +9172,16 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>553.2940084590249</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N17" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
@@ -9246,25 +9248,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>425.427124839344</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>560.949698951924</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>749.459759052679</v>
+        <v>339.7024893595825</v>
       </c>
       <c r="M20" t="n">
-        <v>747.2645854468797</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>746.8866517464535</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>679.7746213336393</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>547.3465691139343</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>330.6111652313504</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>449.6806554579059</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,19 +9719,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N24" t="n">
-        <v>720.7234872415444</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9875,28 +9877,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L26" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P26" t="n">
-        <v>535.5249675786654</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9953,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O27" t="n">
         <v>579.8150493700256</v>
@@ -9972,7 +9974,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>594.1598684051008</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P30" t="n">
-        <v>94.8193679181835</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>228.7885022587807</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875378</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>201.8514806265826</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10667,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>98.1240166537967</v>
       </c>
       <c r="N36" t="n">
         <v>575.2569637637755</v>
@@ -10829,22 +10831,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O38" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>270.21439869122</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
-        <v>93.75312630912927</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>392.2643757374374</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>265.701425083553</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L41" t="n">
         <v>617.5489684328704</v>
@@ -11069,7 +11071,7 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
         <v>615.2533459958087</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>170.9271386512359</v>
       </c>
       <c r="O42" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>461.7925332562006</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>102.6670282080047</v>
+        <v>123.2186021167801</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>18.66945891416648</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9785625348323</v>
+        <v>476.4099526115285</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610659</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>427.5824244671906</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>296.3850258708679</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,19 +22549,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>219.3249859033591</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>84.48425758180827</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22607,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22716,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>56.01419322081142</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,10 +22767,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>154.1490841132528</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22835,22 +22837,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>207.342369818652</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22942,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>5.214916324195698</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,25 +23023,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>203.1021359141881</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23087,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.11513325360323</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.7553487017546</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23261,16 +23263,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>304.2858493858459</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>63.53377936710461</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23425,16 +23427,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>50.5499158800645</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.89313055788466</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7342412063343</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>114.818114697323</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.90597748207779</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>174.3034995505878</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>99.47374445509679</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.0638553218511</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>400.4957640824185</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>333.1278450671654</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24139,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24178,13 +24180,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>12.55274815319927</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.893130557884547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>120.1230229090631</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.893130557884461</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24446,13 +24448,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>206.8819751760617</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.8018919343125</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -24503,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.98329472565422</v>
+        <v>93.42449318090689</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24649,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24685,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>273.5918754177225</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>80.52721527178733</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24731,19 +24733,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>108.0968027170043</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24886,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>94.61732129505862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>376.4250847118721</v>
+        <v>380.2074114670052</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>63.69238215420431</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>255.3808618771699</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>56.01419322081142</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>63.69238215420435</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>17.77593127592979</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>122.387557817847</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58.24239885466551</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>35.51388323829926</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>5.040243950723834</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -25846,13 +25848,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>63.69238215420438</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25874,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>403.4664492046432</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>130.8277376317036</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>9.543636783851127</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,10 +26000,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>120.0410356247816</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.10615505383055</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.0510235443431</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>143.4270840994813</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9414279637351</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>64.67397971247743</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>552614.6119552673</v>
+        <v>552614.6119552674</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552614.6119552673</v>
+        <v>552614.6119552674</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>552614.6119552673</v>
+        <v>552614.6119552674</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552614.6119552673</v>
+        <v>552614.6119552675</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552614.6119552674</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>611824.4534746782</v>
+        <v>552614.6119552674</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>786949.5069204504</v>
+        <v>552614.6119552674</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>552614.6119552674</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552614.6119552674</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>552614.6119552674</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>552614.6119552674</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461865.859877778</v>
+        <v>556084.6109803618</v>
       </c>
     </row>
   </sheetData>
@@ -26329,10 +26331,10 @@
         <v>171233.1127674947</v>
       </c>
       <c r="H2" t="n">
-        <v>189570.0655407167</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="I2" t="n">
-        <v>243805.303332906</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="J2" t="n">
         <v>171233.1127674947</v>
@@ -26353,7 +26355,7 @@
         <v>171233.1127674947</v>
       </c>
       <c r="P2" t="n">
-        <v>143128.737914064</v>
+        <v>180610.0846808189</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>194461.2236348305</v>
       </c>
     </row>
     <row r="4">
@@ -26418,25 +26420,25 @@
         <v>58375.0800038374</v>
       </c>
       <c r="C4" t="n">
+        <v>58375.08000383741</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58375.08000383741</v>
+      </c>
+      <c r="E4" t="n">
+        <v>58375.08000383741</v>
+      </c>
+      <c r="F4" t="n">
+        <v>58375.08000383739</v>
+      </c>
+      <c r="G4" t="n">
+        <v>58375.08000383739</v>
+      </c>
+      <c r="H4" t="n">
         <v>58375.0800038374</v>
       </c>
-      <c r="D4" t="n">
+      <c r="I4" t="n">
         <v>58375.0800038374</v>
-      </c>
-      <c r="E4" t="n">
-        <v>58375.0800038374</v>
-      </c>
-      <c r="F4" t="n">
-        <v>58375.0800038374</v>
-      </c>
-      <c r="G4" t="n">
-        <v>58375.0800038374</v>
-      </c>
-      <c r="H4" t="n">
-        <v>64673.8666245748</v>
-      </c>
-      <c r="I4" t="n">
-        <v>83303.79900226116</v>
       </c>
       <c r="J4" t="n">
         <v>58375.0800038374</v>
@@ -26445,19 +26447,19 @@
         <v>58375.08000383741</v>
       </c>
       <c r="L4" t="n">
-        <v>58375.08000383741</v>
+        <v>58375.0800038374</v>
       </c>
       <c r="M4" t="n">
-        <v>58375.0800038374</v>
+        <v>58375.08000383739</v>
       </c>
       <c r="N4" t="n">
-        <v>58375.0800038374</v>
+        <v>58375.08000383739</v>
       </c>
       <c r="O4" t="n">
         <v>58375.0800038374</v>
       </c>
       <c r="P4" t="n">
-        <v>48721.16081124991</v>
+        <v>34772.16023439026</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>38110.76726974139</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-127466.5422079543</v>
       </c>
       <c r="C6" t="n">
-        <v>47488.96768515971</v>
+        <v>47488.96768515976</v>
       </c>
       <c r="D6" t="n">
-        <v>47488.96768515971</v>
+        <v>47488.96768515976</v>
       </c>
       <c r="E6" t="n">
         <v>81116.56768515977</v>
       </c>
       <c r="F6" t="n">
-        <v>81116.56768515971</v>
+        <v>81116.56768515978</v>
       </c>
       <c r="G6" t="n">
+        <v>81116.56768515978</v>
+      </c>
+      <c r="H6" t="n">
         <v>81116.56768515974</v>
       </c>
-      <c r="H6" t="n">
-        <v>49543.83926162004</v>
-      </c>
       <c r="I6" t="n">
-        <v>-6731.243170307716</v>
+        <v>81116.56768515977</v>
       </c>
       <c r="J6" t="n">
-        <v>81116.56768515971</v>
+        <v>-55478.23312073518</v>
       </c>
       <c r="K6" t="n">
+        <v>81116.56768515977</v>
+      </c>
+      <c r="L6" t="n">
+        <v>81116.56768515974</v>
+      </c>
+      <c r="M6" t="n">
+        <v>81116.56768515975</v>
+      </c>
+      <c r="N6" t="n">
         <v>81116.56768515972</v>
       </c>
-      <c r="L6" t="n">
-        <v>81116.56768515975</v>
-      </c>
-      <c r="M6" t="n">
-        <v>81116.56768515971</v>
-      </c>
-      <c r="N6" t="n">
-        <v>81116.56768515974</v>
-      </c>
       <c r="O6" t="n">
-        <v>81116.56768515971</v>
+        <v>81116.56768515977</v>
       </c>
       <c r="P6" t="n">
-        <v>70686.28809400088</v>
+        <v>-86734.06645814325</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>292.1698252864143</v>
       </c>
     </row>
     <row r="4">
@@ -26805,10 +26807,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700256</v>
@@ -26829,7 +26831,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>292.1698252864143</v>
       </c>
     </row>
     <row r="4">
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.174552061452921</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>12.02888129935473</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>45.28191834916378</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>99.68863802573995</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>149.4074267870421</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>185.353124437732</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>206.2410646605954</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>209.5782607051985</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>197.898808644126</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>168.902054627007</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>126.8384089262242</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.78095593024211</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>26.76510510035846</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.141601649010164</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.09396416491623366</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.6284407562764384</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.069414672459287</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.63710498583352</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>59.37386987259106</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>101.4794005431124</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>136.4515773660749</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>159.2325547810958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>163.446966694897</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>149.5220425689822</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>120.004621257735</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>80.21991127486606</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.0184532712687</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>11.67301141592419</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.533057258851082</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04134478659713412</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5268636193689438</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.684296543116613</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>15.84422593520424</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>37.24925788938432</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>61.21197323213728</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>78.33025119236099</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>82.58826717071543</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>80.62450277124942</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>74.46977776316675</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.72175992804024</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>44.11764361824856</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>23.6897041945345</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.181795984820591</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.251144555485487</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02873801560194242</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5650354103359</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>276.3515302285468</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34793,10 +34795,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34936,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O5" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>445.0368534430334</v>
+        <v>471.1119924130247</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>135.5987266329976</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>445.0368534430332</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P12" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O14" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N14" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O14" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>522.0635703700256</v>
@@ -35890,16 +35892,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>460.0037840019794</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M18" t="n">
-        <v>367.8628411009266</v>
-      </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>653.9743609898342</v>
+        <v>244.2170912967377</v>
       </c>
       <c r="M20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
-        <v>586.5848457078562</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2320453030853</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>360.5442657846888</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>400.909295520443</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N24" t="n">
-        <v>667.5300938477944</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L26" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="O27" t="n">
         <v>522.0635703700256</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P29" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M29" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N29" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O29" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="P30" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O30" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P30" t="n">
-        <v>40.55973291537975</v>
-      </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N32" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O32" t="n">
-        <v>135.5987266329976</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O33" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P33" t="n">
-        <v>147.5918456237788</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O35" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="N36" t="n">
         <v>522.0635703700256</v>
@@ -37549,22 +37551,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O38" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
       <c r="N39" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>176.5650354103358</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L41" t="n">
         <v>522.0635703700256</v>
@@ -37789,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>522.0635703700256</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="O42" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>356.44163950832</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>89.86772637488717</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>112.9508402035499</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>116.6659699485792</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>104.7090330183429</v>
       </c>
       <c r="P44" t="n">
-        <v>9.017664927120512</v>
+        <v>198.4712934629029</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>451.2434662952061</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>114.7472647075803</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>254.1343320570691</v>
       </c>
       <c r="K45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L45" t="n">
-        <v>390.1527797502169</v>
+        <v>80.33705355522588</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502169</v>
+        <v>101.6682710426784</v>
       </c>
       <c r="N45" t="n">
-        <v>374.3890310734406</v>
+        <v>110.253573301147</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>91.77056356898225</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>362.1300121257992</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>433.5981584304049</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>68.87655363756153</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900053</v>
+        <v>51.47405526838485</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1134623456949</v>
+        <v>217.3254355778322</v>
       </c>
       <c r="L46" t="n">
-        <v>262.5223235152127</v>
+        <v>340.8525747075737</v>
       </c>
       <c r="M46" t="n">
-        <v>292.1859155964578</v>
+        <v>374.7741827671733</v>
       </c>
       <c r="N46" t="n">
-        <v>283.67553777197</v>
+        <v>364.3000405432194</v>
       </c>
       <c r="O46" t="n">
-        <v>262.1824346732062</v>
+        <v>336.652212436373</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7529699491034</v>
+        <v>271.4747298771437</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.18992909344529</v>
+        <v>110.3075727116939</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352192.1702322987</v>
+        <v>345972.7204112724</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12215006.4334169</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110838.60250329</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6391954.52862615</v>
+        <v>6389950.690651741</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>181.094304704511</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>148.793488791871</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>69.90869425880389</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -837,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>42.04842478218836</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>172.5803280375311</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>197.3171546936819</v>
+        <v>96.70135092469602</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1186,19 +1186,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588048</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
         <v>70.03974083464111</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>93.86998482510079</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>27.77250173713422</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>38.55644049570897</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>282.8053997497795</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.9779345588243</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>308.2540134164142</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>265.1045831588601</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>41.24458363092483</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>392.5647472501408</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>222.3334643021492</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.34896487500716</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.623203785426046</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>131.0119286581096</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>258.594139456674</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>198.398744346241</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>11.01821599153682</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>149.0551026247475</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>54.68688746169101</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>329.6695980564849</v>
+        <v>292.0891338762946</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5627220424963</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.72590661309961</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>54.29350408687457</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3009,7 +3009,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>36.61269645884417</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>224.2419637676909</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>105.6900565596963</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>150.6424829026926</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>332.5251158606779</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>101.8855050095077</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>51.24388571109842</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5407066359931</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>95.17224324447095</v>
       </c>
       <c r="C40" t="n">
-        <v>133.8685554756014</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>383.5604440308339</v>
       </c>
       <c r="E41" t="n">
-        <v>405.1565693775484</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>212.58658569201</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>286.8832452102072</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>295.7705310992044</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>40.20632670693379</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>107.1631593534817</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>214.8428175635996</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3959226581688</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.3836695375397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.2917708025282</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>63.97032616218182</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>95.23709837091006</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>155.2153879160108</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3359579665663</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>99.33835950151285</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.73028694681985</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>175.3460544540683</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>234.9021070775794</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>206.4729078973958</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1866.047797426961</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="C2" t="n">
-        <v>1866.047797426961</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="D2" t="n">
-        <v>1683.124257321394</v>
+        <v>192.0615389547243</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.784041838291</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,49 +4333,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1866.047797426961</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>1866.047797426961</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X2" t="n">
-        <v>1866.047797426961</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y2" t="n">
-        <v>1866.047797426961</v>
+        <v>596.5254688616637</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>914.2743602824419</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>1101.974066676486</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1691.724233752687</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="C5" t="n">
-        <v>1281.599643065957</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="D5" t="n">
-        <v>877.1357131590178</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="E5" t="n">
-        <v>462.7954976759145</v>
+        <v>505.2686540215593</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>84.23824197524686</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>84.23824197524686</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>84.23824197524686</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,49 +4570,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L5" t="n">
         <v>812.7934917636817</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="N5" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="O5" t="n">
         <v>1329.636426430007</v>
       </c>
-      <c r="M5" t="n">
-        <v>1329.636426430007</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1726.536628995245</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1726.536628995245</v>
-      </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1691.724233752687</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>1691.724233752687</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y5" t="n">
-        <v>1691.724233752687</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1473.706230480572</v>
+        <v>945.4317620391464</v>
       </c>
       <c r="C8" t="n">
-        <v>1473.706230480572</v>
+        <v>945.4317620391464</v>
       </c>
       <c r="D8" t="n">
-        <v>1274.395973214227</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="E8" t="n">
-        <v>860.0557577311233</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F8" t="n">
-        <v>439.0253456848109</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
         <v>439.0253456848109</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>1846.479361096332</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N8" t="n">
-        <v>2047.697635790537</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W8" t="n">
-        <v>1473.706230480572</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X8" t="n">
-        <v>1473.706230480572</v>
+        <v>945.4317620391464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1473.706230480572</v>
+        <v>945.4317620391464</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
         <v>469.7036984844747</v>
@@ -4871,40 +4871,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>187.8810127971431</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>187.8810127971431</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>704.7239474634683</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>136.5832521196029</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>136.5832521196029</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>136.5832521196029</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>136.5832521196029</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>136.5832521196029</v>
       </c>
       <c r="G10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1543.110950192741</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1303.562211169443</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U10" t="n">
-        <v>1020.764063715567</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V10" t="n">
-        <v>746.8783186550887</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W10" t="n">
-        <v>467.8086541639631</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="X10" t="n">
-        <v>229.4647920236465</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="Y10" t="n">
-        <v>229.4647920236465</v>
+        <v>324.2829585136473</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1188.0442105313</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C11" t="n">
-        <v>1188.0442105313</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="D11" t="n">
-        <v>1188.0442105313</v>
+        <v>916.0816126496329</v>
       </c>
       <c r="E11" t="n">
-        <v>773.7039950481965</v>
+        <v>501.7413971665296</v>
       </c>
       <c r="F11" t="n">
-        <v>352.673583001884</v>
+        <v>80.71098512021717</v>
       </c>
       <c r="G11" t="n">
-        <v>352.673583001884</v>
+        <v>80.71098512021717</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>80.71098512021717</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
@@ -5050,19 +5050,19 @@
         <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1726.536628995245</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N11" t="n">
-        <v>1726.536628995245</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O11" t="n">
-        <v>1726.536628995245</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5074,19 +5074,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V11" t="n">
-        <v>1188.0442105313</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W11" t="n">
-        <v>1188.0442105313</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X11" t="n">
-        <v>1188.0442105313</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y11" t="n">
-        <v>1188.0442105313</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="12">
@@ -5135,13 +5135,13 @@
         <v>1724.070068790184</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5226,25 +5226,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1435.832735221336</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1196.283996198038</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>913.4858487441627</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>639.6001036836846</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>639.6001036836846</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>639.6001036836846</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1188.0442105313</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="C14" t="n">
-        <v>1188.0442105313</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="D14" t="n">
-        <v>1188.0442105313</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="E14" t="n">
-        <v>773.7039950481965</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="F14" t="n">
-        <v>352.673583001884</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G14" t="n">
         <v>352.673583001884</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V14" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W14" t="n">
-        <v>1598.265390195789</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X14" t="n">
-        <v>1598.265390195789</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y14" t="n">
-        <v>1598.265390195789</v>
+        <v>1072.769557428662</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>497.5713418949007</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N15" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O15" t="n">
-        <v>2048.100145893876</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5478,10 +5478,10 @@
         <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>257.5178240813579</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.7954976759145</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C17" t="n">
-        <v>462.7954976759145</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D17" t="n">
-        <v>462.7954976759145</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E17" t="n">
         <v>462.7954976759145</v>
@@ -5518,25 +5518,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M17" t="n">
-        <v>1530.854701124212</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N17" t="n">
-        <v>1530.854701124212</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5548,19 +5548,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U17" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>873.0166773404039</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>873.0166773404039</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
@@ -5600,19 +5600,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M18" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N18" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O18" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P18" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q18" t="n">
         <v>2058.694762117472</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>843.6595175967814</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
         <v>41.76508562960205</v>
@@ -5700,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1384.772214130362</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U19" t="n">
-        <v>1101.974066676486</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V19" t="n">
-        <v>1101.974066676486</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W19" t="n">
-        <v>1101.974066676486</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.974066676486</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y19" t="n">
-        <v>1101.974066676486</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>451.8896763163319</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="C20" t="n">
-        <v>41.76508562960205</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="D20" t="n">
-        <v>41.76508562960205</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="E20" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
         <v>41.76508562960205</v>
@@ -5755,49 +5755,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M20" t="n">
-        <v>1054.568412147452</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N20" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O20" t="n">
-        <v>1571.411346813777</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>1608.987305686471</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V20" t="n">
-        <v>1259.149751022952</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W20" t="n">
-        <v>1259.149751022952</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X20" t="n">
-        <v>858.5063531919045</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="Y20" t="n">
-        <v>457.5696801399946</v>
+        <v>864.8335852198732</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
         <v>41.76508562960205</v>
@@ -5834,25 +5834,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N21" t="n">
-        <v>1268.263812524886</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O21" t="n">
-        <v>1785.106747191211</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P21" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q21" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.1088491423421</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
         <v>41.76508562960205</v>
@@ -5940,22 +5940,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1309.957780779064</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>1030.888116287938</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>792.5442541476218</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>567.8085555363865</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1678.033101815613</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C23" t="n">
-        <v>1267.908511128883</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D23" t="n">
-        <v>1267.908511128883</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E23" t="n">
-        <v>853.5682956457795</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F23" t="n">
-        <v>432.537883599467</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H23" t="n">
         <v>41.76508562960205</v>
@@ -5995,13 +5995,13 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L23" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="M23" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="N23" t="n">
         <v>692.8507596625949</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1209.69369432892</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1209.69369432892</v>
       </c>
       <c r="O23" t="n">
         <v>1209.69369432892</v>
@@ -6022,19 +6022,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1887.851509413192</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1538.013954749673</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1154.253653884841</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>753.6102560537939</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="24">
@@ -6077,19 +6077,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="M24" t="n">
-        <v>704.7239474634679</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O24" t="n">
-        <v>1738.409816796118</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P24" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>962.3148590053625</v>
+        <v>1580.206012499095</v>
       </c>
       <c r="C26" t="n">
-        <v>962.3148590053625</v>
+        <v>1580.206012499095</v>
       </c>
       <c r="D26" t="n">
-        <v>962.3148590053625</v>
+        <v>1175.742082592155</v>
       </c>
       <c r="E26" t="n">
-        <v>547.9746435222592</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F26" t="n">
-        <v>536.8451324196967</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G26" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
         <v>41.76508562960205</v>
@@ -6229,13 +6229,13 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L26" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="M26" t="n">
         <v>692.8507596625949</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1209.69369432892</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1209.69369432892</v>
       </c>
       <c r="N26" t="n">
         <v>1209.69369432892</v>
@@ -6256,22 +6256,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U26" t="n">
-        <v>1695.912714533713</v>
+        <v>1580.206012499095</v>
       </c>
       <c r="V26" t="n">
-        <v>1346.075159870194</v>
+        <v>1580.206012499095</v>
       </c>
       <c r="W26" t="n">
-        <v>962.3148590053625</v>
+        <v>1580.206012499095</v>
       </c>
       <c r="X26" t="n">
-        <v>962.3148590053625</v>
+        <v>1580.206012499095</v>
       </c>
       <c r="Y26" t="n">
-        <v>962.3148590053625</v>
+        <v>1580.206012499095</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>1207.227134123859</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M27" t="n">
-        <v>1207.227134123859</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N27" t="n">
-        <v>1221.566882129794</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O27" t="n">
-        <v>1738.409816796119</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P27" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q27" t="n">
         <v>2088.254281480102</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.3847151048558</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>749.2913426665723</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>589.7966979894823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>428.8858828578017</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>264.254756968393</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>97.00436589393641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
         <v>41.76508562960205</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.820120110135</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
-        <v>1108.0844214989</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1608.987305686471</v>
+        <v>1151.393135391246</v>
       </c>
       <c r="C29" t="n">
-        <v>1608.987305686471</v>
+        <v>741.2685447045159</v>
       </c>
       <c r="D29" t="n">
-        <v>1204.523375779532</v>
+        <v>336.8046147975764</v>
       </c>
       <c r="E29" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G29" t="n">
         <v>41.76508562960205</v>
@@ -6463,52 +6463,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>812.7934917636817</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L29" t="n">
-        <v>812.7934917636817</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M29" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N29" t="n">
-        <v>812.7934917636817</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O29" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P29" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U29" t="n">
-        <v>1608.987305686471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V29" t="n">
-        <v>1608.987305686471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W29" t="n">
-        <v>1608.987305686471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X29" t="n">
-        <v>1608.987305686471</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y29" t="n">
-        <v>1608.987305686471</v>
+        <v>1151.393135391246</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I30" t="n">
         <v>41.76508562960205</v>
@@ -6548,22 +6548,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>690.384199457534</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N30" t="n">
-        <v>690.384199457534</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O30" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P30" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6587,7 +6587,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C31" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="D31" t="n">
-        <v>41.76508562960205</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E31" t="n">
         <v>41.76508562960205</v>
@@ -6648,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>862.4253276531883</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>583.3556631620627</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>345.0118010217461</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>120.2761024105108</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>893.3361278988716</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C32" t="n">
-        <v>483.2115372121417</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D32" t="n">
-        <v>78.74760730520222</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E32" t="n">
-        <v>78.74760730520222</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F32" t="n">
         <v>41.76508562960205</v>
@@ -6706,46 +6706,46 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M32" t="n">
         <v>812.7934917636817</v>
       </c>
       <c r="N32" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O32" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P32" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1247.199196371793</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.493980615271</v>
+        <v>863.4388955069619</v>
       </c>
       <c r="X32" t="n">
-        <v>1704.493980615271</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="Y32" t="n">
-        <v>1303.557307563361</v>
+        <v>462.7954976759145</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K33" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L33" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M33" t="n">
-        <v>1192.007362767163</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N33" t="n">
-        <v>1192.007362767163</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O33" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>641.31505061373</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>534.5574177251478</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>534.5574177251478</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
         <v>41.76508562960205</v>
@@ -6888,22 +6888,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>1292.094317759326</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>1053.75045561901</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.0147570077744</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>689.0092565638307</v>
+        <v>1687.317608428192</v>
       </c>
       <c r="C35" t="n">
-        <v>536.8451324196967</v>
+        <v>1277.193017741462</v>
       </c>
       <c r="D35" t="n">
-        <v>536.8451324196967</v>
+        <v>872.7290878345229</v>
       </c>
       <c r="E35" t="n">
-        <v>536.8451324196967</v>
+        <v>872.7290878345229</v>
       </c>
       <c r="F35" t="n">
         <v>536.8451324196967</v>
@@ -6940,49 +6940,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>295.9505570973564</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N35" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O35" t="n">
-        <v>1329.636426430007</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P35" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V35" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W35" t="n">
-        <v>1089.945929615741</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X35" t="n">
-        <v>1089.945929615741</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y35" t="n">
-        <v>689.0092565638307</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M36" t="n">
-        <v>1054.568412147451</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N36" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q36" t="n">
         <v>2088.254281480102</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.31505061373</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>470.2216781754465</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>470.2216781754465</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>309.310863043766</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>144.6797371543573</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
         <v>41.76508562960205</v>
@@ -7125,22 +7125,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>1292.094317759326</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>1053.75045561901</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.0147570077744</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>462.7954976759145</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C38" t="n">
-        <v>462.7954976759145</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="D38" t="n">
-        <v>462.7954976759145</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="E38" t="n">
-        <v>462.7954976759145</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
         <v>41.76508562960205</v>
@@ -7177,49 +7177,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K38" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L38" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="M38" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N38" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O38" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2076.597002049806</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>1854.390517996665</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>1597.330026256175</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V38" t="n">
-        <v>1247.492471592656</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W38" t="n">
-        <v>863.7321707278244</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X38" t="n">
-        <v>863.7321707278244</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y38" t="n">
-        <v>462.7954976759145</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="39">
@@ -7262,19 +7262,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N39" t="n">
         <v>1207.227134123859</v>
       </c>
       <c r="O39" t="n">
-        <v>1724.070068790184</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P39" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>819.3856360263594</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C40" t="n">
-        <v>684.1648729196913</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D40" t="n">
         <v>684.1648729196913</v>
@@ -7359,25 +7359,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T40" t="n">
-        <v>1331.615243227154</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U40" t="n">
-        <v>1331.615243227154</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V40" t="n">
-        <v>1057.729498166676</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="W40" t="n">
-        <v>1057.729498166676</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="X40" t="n">
-        <v>819.3856360263594</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="Y40" t="n">
-        <v>819.3856360263594</v>
+        <v>1110.886469069884</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.033101815613</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.033101815613</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="D41" t="n">
-        <v>1678.033101815613</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E41" t="n">
-        <v>1268.784041838291</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F41" t="n">
-        <v>847.7536297919787</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G41" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K41" t="n">
-        <v>692.8507596625949</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L41" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M41" t="n">
+        <v>558.6080202959273</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1075.450954962253</v>
+      </c>
+      <c r="O41" t="n">
         <v>1209.69369432892</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1209.69369432892</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1209.69369432892</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1726.536628995245</v>
       </c>
       <c r="P41" t="n">
         <v>1726.536628995245</v>
@@ -7438,25 +7438,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959273</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N42" t="n">
-        <v>675.1644281008383</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O42" t="n">
-        <v>1192.007362767164</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P42" t="n">
-        <v>1708.850297433489</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q42" t="n">
         <v>2058.694762117472</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.6507901634313</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>534.5574177251478</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>534.5574177251478</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
         <v>41.76508562960205</v>
@@ -7599,22 +7599,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1356.430057309028</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>1118.086195168711</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.3504965574757</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>381.1356490701457</v>
+        <v>1063.485050816083</v>
       </c>
       <c r="C44" t="n">
-        <v>381.1356490701457</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D44" t="n">
-        <v>381.1356490701457</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E44" t="n">
-        <v>381.1356490701457</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1356490701457</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1356490701457</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H44" t="n">
-        <v>82.37753684872709</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>394.6423087428388</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="K44" t="n">
-        <v>911.4852434091641</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L44" t="n">
-        <v>1000.454292520302</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M44" t="n">
-        <v>1112.275624321817</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N44" t="n">
-        <v>1227.77493457091</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O44" t="n">
-        <v>1331.43687725907</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P44" t="n">
-        <v>1527.923457787344</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q44" t="n">
-        <v>1974.654489419598</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1980.008665971535</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1762.995718937596</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U44" t="n">
-        <v>1506.030140495001</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1156.192585831482</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W44" t="n">
-        <v>772.4322849666505</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X44" t="n">
-        <v>772.4322849666505</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y44" t="n">
-        <v>381.1356490701457</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>693.0818256023001</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>559.0867543512458</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>442.1895965706382</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>321.6967805629662</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>212.7369007454708</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>106.381576702513</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>41.76508562960205</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>293.3580743661004</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>810.2010090324256</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>889.7346920520993</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M45" t="n">
-        <v>990.3862803843508</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.537317952486</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O45" t="n">
-        <v>1190.390175885779</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P45" t="n">
-        <v>1548.89888789032</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q45" t="n">
-        <v>1978.161064736421</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
-        <v>2046.348852837607</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1950.149763574061</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1793.366543456878</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1596.057495005801</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1382.345967998835</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>1169.112799735164</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>992.7868178740567</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>833.3848582378868</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>474.1110504738215</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>303.017678035538</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>303.017678035538</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>142.1068629038575</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>142.1068629038575</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>142.1068629038575</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>142.1068629038575</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>92.72440034530302</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8765815673569</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>645.320630527855</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>1016.347071467356</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1377.004111605144</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1710.289801917153</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1979.049784495525</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>2026.910557291395</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1849.793330570114</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.518474936196</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U46" t="n">
-        <v>1612.518474936196</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V46" t="n">
-        <v>1403.959982110543</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W46" t="n">
-        <v>1124.890317619418</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X46" t="n">
-        <v>886.5464554791012</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y46" t="n">
-        <v>661.8107568678658</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N2" t="n">
-        <v>296.1630732760185</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875383</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>171.9933802602897</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8218,7 +8218,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8227,19 +8227,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>493.8215862770622</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>524.3053858067747</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N8" t="n">
-        <v>296.1630732760186</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>198.9610844237788</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>494.1995199774884</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
         <v>92.91229075661933</v>
@@ -8707,13 +8707,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>425.6143201009271</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>392.2643757374379</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>94.81936791818303</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>537.3610023606261</v>
       </c>
       <c r="M17" t="n">
-        <v>296.5410069764447</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
         <v>92.91229075661933</v>
@@ -9181,13 +9181,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9260,7 +9260,7 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>560.949698951924</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9403,28 +9403,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>339.7024893595825</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>578.1780941808746</v>
@@ -9491,19 +9491,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P21" t="n">
-        <v>330.6111652313504</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>496.3946935832878</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
         <v>615.7129336509097</v>
@@ -9725,22 +9725,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>72.04887768380517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>490.0456851936601</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O26" t="n">
         <v>615.2533459958087</v>
@@ -9959,22 +9959,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>423.9773649117762</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>67.6779873391382</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432426</v>
+        <v>265.701425083553</v>
       </c>
       <c r="L29" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>494.099071146226</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
         <v>615.7129336509097</v>
@@ -10135,7 +10135,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,16 +10196,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>564.4415429491208</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>576.3232053728293</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P32" t="n">
-        <v>535.5249675786654</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>564.2543476875378</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>98.31121191537929</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
         <v>92.91229075661933</v>
@@ -10603,13 +10603,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>494.5586588013271</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>98.1240166537967</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10825,28 +10825,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N38" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P39" t="n">
-        <v>392.2643757374374</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>490.0456851936601</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958087</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N42" t="n">
-        <v>170.9271386512359</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>394.6973592394724</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>249.8886267436438</v>
       </c>
       <c r="K44" t="n">
-        <v>461.7925332562006</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>123.2186021167801</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,28 +11372,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>18.66945891416648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>476.4099526115285</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P45" t="n">
-        <v>296.3850258708679</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22552,22 +22552,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>219.3249859033591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>261.4033245364013</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22606,13 +22606,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22707,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>99.47374445509676</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,13 +22755,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -22770,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>43.43982027390921</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>207.342369818652</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23026,16 +23026,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>203.1021359141881</v>
+        <v>303.717939683174</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23193,7 +23193,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>71.70790233861122</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -23229,10 +23229,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>156.7553487017546</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>46.9318045603886</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>63.53377936710461</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23427,16 +23427,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>50.5499158800645</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23503,13 +23503,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>108.5660945094351</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>114.818114697323</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.89313055788466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>13.55422061770378</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>174.3034995505878</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.47374445509679</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23940,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>400.4957640824185</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>265.6250351946273</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24141,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24180,13 +24180,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>12.55274815319927</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>17.77593127592979</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24262,19 +24262,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>56.09114247684403</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24448,22 +24448,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>405.8018919343125</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>105.4347841983375</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>93.42449318090689</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>80.52721527178733</v>
+        <v>118.1076794519776</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>108.0968027170043</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>103.6061941434445</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24888,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>380.2074114670052</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>122.0972153491932</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>63.69238215420431</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25128,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>255.3808618771699</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>84.29499206517136</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>63.69238215420435</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25365,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25399,19 +25399,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>358.9529276171738</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>122.387557817847</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>90.650466085633</v>
       </c>
       <c r="C40" t="n">
-        <v>35.51388323829926</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -25614,7 +25614,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>16.85884657703616</v>
       </c>
       <c r="E41" t="n">
-        <v>5.040243950723834</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,22 +25839,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>63.69238215420438</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>119.1400995696554</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>403.4664492046432</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.543636783851127</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.0510235443431</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4270840994813</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9414279637351</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>64.67397971247743</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>552614.6119552674</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552614.6119552674</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>552614.6119552674</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552614.6119552675</v>
+        <v>552614.6119552674</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552614.6119552673</v>
+        <v>552614.6119552674</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>552614.6119552674</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>552614.6119552673</v>
+        <v>552614.6119552674</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>552614.6119552674</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>556084.6109803618</v>
+        <v>552614.6119552673</v>
       </c>
     </row>
   </sheetData>
@@ -26355,7 +26355,7 @@
         <v>171233.1127674947</v>
       </c>
       <c r="P2" t="n">
-        <v>180610.0846808189</v>
+        <v>171233.1127674947</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>194461.2236348305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>58375.08000383741</v>
+      </c>
+      <c r="C4" t="n">
         <v>58375.0800038374</v>
       </c>
-      <c r="C4" t="n">
-        <v>58375.08000383741</v>
-      </c>
       <c r="D4" t="n">
-        <v>58375.08000383741</v>
+        <v>58375.0800038374</v>
       </c>
       <c r="E4" t="n">
         <v>58375.08000383741</v>
       </c>
       <c r="F4" t="n">
-        <v>58375.08000383739</v>
+        <v>58375.0800038374</v>
       </c>
       <c r="G4" t="n">
-        <v>58375.08000383739</v>
+        <v>58375.08000383741</v>
       </c>
       <c r="H4" t="n">
         <v>58375.0800038374</v>
       </c>
       <c r="I4" t="n">
-        <v>58375.0800038374</v>
+        <v>58375.08000383739</v>
       </c>
       <c r="J4" t="n">
         <v>58375.0800038374</v>
@@ -26447,19 +26447,19 @@
         <v>58375.08000383741</v>
       </c>
       <c r="L4" t="n">
+        <v>58375.08000383739</v>
+      </c>
+      <c r="M4" t="n">
         <v>58375.0800038374</v>
       </c>
-      <c r="M4" t="n">
-        <v>58375.08000383739</v>
-      </c>
       <c r="N4" t="n">
-        <v>58375.08000383739</v>
+        <v>58375.0800038374</v>
       </c>
       <c r="O4" t="n">
         <v>58375.0800038374</v>
       </c>
       <c r="P4" t="n">
-        <v>34772.16023439026</v>
+        <v>58375.0800038374</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>38110.76726974139</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127466.5422079543</v>
+        <v>-128144.0710673484</v>
       </c>
       <c r="C6" t="n">
-        <v>47488.96768515976</v>
+        <v>46811.4388257657</v>
       </c>
       <c r="D6" t="n">
-        <v>47488.96768515976</v>
+        <v>46811.43882576573</v>
       </c>
       <c r="E6" t="n">
-        <v>81116.56768515977</v>
+        <v>80439.03882576567</v>
       </c>
       <c r="F6" t="n">
-        <v>81116.56768515978</v>
+        <v>80439.03882576569</v>
       </c>
       <c r="G6" t="n">
-        <v>81116.56768515978</v>
+        <v>80439.03882576567</v>
       </c>
       <c r="H6" t="n">
-        <v>81116.56768515974</v>
+        <v>80439.03882576572</v>
       </c>
       <c r="I6" t="n">
-        <v>81116.56768515977</v>
+        <v>80439.03882576567</v>
       </c>
       <c r="J6" t="n">
-        <v>-55478.23312073518</v>
+        <v>-56155.76198012928</v>
       </c>
       <c r="K6" t="n">
-        <v>81116.56768515977</v>
+        <v>80439.0388257657</v>
       </c>
       <c r="L6" t="n">
-        <v>81116.56768515974</v>
+        <v>80439.03882576573</v>
       </c>
       <c r="M6" t="n">
-        <v>81116.56768515975</v>
+        <v>80439.03882576566</v>
       </c>
       <c r="N6" t="n">
-        <v>81116.56768515972</v>
+        <v>80439.03882576566</v>
       </c>
       <c r="O6" t="n">
-        <v>81116.56768515977</v>
+        <v>80439.03882576575</v>
       </c>
       <c r="P6" t="n">
-        <v>-86734.06645814325</v>
+        <v>80439.03882576569</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>292.1698252864143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>292.1698252864143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.174552061452921</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>12.02888129935473</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>45.28191834916378</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>99.68863802573995</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>149.4074267870421</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>185.353124437732</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>206.2410646605954</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>209.5782607051985</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>197.898808644126</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>168.902054627007</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>126.8384089262242</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.78095593024211</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>26.76510510035846</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.141601649010164</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09396416491623366</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6284407562764384</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>6.069414672459287</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.63710498583352</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>59.37386987259106</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>101.4794005431124</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>136.4515773660749</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>159.2325547810958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>163.446966694897</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>149.5220425689822</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>120.004621257735</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>80.21991127486606</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.0184532712687</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>11.67301141592419</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2.533057258851082</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04134478659713412</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5268636193689438</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>4.684296543116613</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>15.84422593520424</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>37.24925788938432</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>61.21197323213728</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>78.33025119236099</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>82.58826717071543</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>80.62450277124942</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>74.46977776316675</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>63.72175992804024</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.11764361824856</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>23.6897041945345</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>9.181795984820591</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.251144555485487</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02873801560194242</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N2" t="n">
-        <v>203.2507825193992</v>
-      </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34938,7 +34938,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>471.1119924130247</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>176.5650354103358</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>203.2507825193993</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>147.5918456237788</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>367.8628411009271</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P15" t="n">
-        <v>40.55973291537929</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="M17" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>506.6900639491203</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36123,28 +36123,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>244.2170912967377</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N20" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>522.0635703700256</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>14.48459394538775</v>
+      </c>
+      <c r="P21" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O21" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P21" t="n">
-        <v>276.3515302285466</v>
-      </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>400.909295520443</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>522.0635703700256</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="P24" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O24" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>400.909295520443</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>522.0635703700256</v>
@@ -36679,22 +36679,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009272</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>176.5650354103358</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>522.0635703700256</v>
@@ -36855,7 +36855,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>506.6900639491208</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>522.0635703700256</v>
@@ -36934,7 +36934,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O32" t="n">
+        <v>203.2507825193993</v>
+      </c>
+      <c r="P32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P32" t="n">
-        <v>441.8756042977812</v>
-      </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
-        <v>400.9092955204429</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
+        <v>14.48459394538775</v>
+      </c>
+      <c r="P36" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N38" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O38" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
+        <v>14.48459394538775</v>
+      </c>
+      <c r="P39" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P39" t="n">
-        <v>338.0047407346337</v>
-      </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
+        <v>135.5987266329976</v>
+      </c>
+      <c r="P41" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N42" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>356.44163950832</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L44" t="n">
-        <v>89.86772637488717</v>
-      </c>
       <c r="M44" t="n">
-        <v>112.9508402035499</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>116.6659699485792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
-        <v>104.7090330183429</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>198.4712934629029</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>451.2434662952061</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>114.7472647075803</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>254.1343320570691</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
+        <v>460.4103598639381</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="P45" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L45" t="n">
-        <v>80.33705355522588</v>
-      </c>
-      <c r="M45" t="n">
-        <v>101.6682710426784</v>
-      </c>
-      <c r="N45" t="n">
-        <v>110.253573301147</v>
-      </c>
-      <c r="O45" t="n">
-        <v>91.77056356898225</v>
-      </c>
-      <c r="P45" t="n">
-        <v>362.1300121257992</v>
-      </c>
       <c r="Q45" t="n">
-        <v>433.5981584304049</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>68.87655363756153</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.47405526838485</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>217.3254355778322</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>340.8525747075737</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>374.7741827671733</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>364.3000405432194</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>336.652212436373</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>271.4747298771437</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.3075727116939</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
